--- a/bulletin/macroeconomics/static/macroeconomics/tables/2-11population_share_below_poverty_line.xlsx
+++ b/bulletin/macroeconomics/static/macroeconomics/tables/2-11population_share_below_poverty_line.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:L23"/>
+  <dimension ref="A1:M23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -497,6 +497,11 @@
           <t>2 кв</t>
         </is>
       </c>
+      <c r="M2" t="inlineStr">
+        <is>
+          <t>3 кв</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -536,6 +541,9 @@
       </c>
       <c r="L3" t="n">
         <v>5.1</v>
+      </c>
+      <c r="M3" t="n">
+        <v>5.6</v>
       </c>
     </row>
     <row r="4">
@@ -565,6 +573,9 @@
       <c r="L4" t="n">
         <v>7.6</v>
       </c>
+      <c r="M4" t="n">
+        <v>8.6</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -605,6 +616,9 @@
       <c r="L5" t="n">
         <v>5.5</v>
       </c>
+      <c r="M5" t="n">
+        <v>5.9</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -645,6 +659,9 @@
       <c r="L6" t="n">
         <v>3.5</v>
       </c>
+      <c r="M6" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -685,6 +702,9 @@
       <c r="L7" t="n">
         <v>3.2</v>
       </c>
+      <c r="M7" t="n">
+        <v>3.3</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -725,6 +745,9 @@
       <c r="L8" t="n">
         <v>2.9</v>
       </c>
+      <c r="M8" t="n">
+        <v>2.9</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -765,6 +788,9 @@
       <c r="L9" t="n">
         <v>4.4</v>
       </c>
+      <c r="M9" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -804,6 +830,9 @@
       </c>
       <c r="L10" t="n">
         <v>5.8</v>
+      </c>
+      <c r="M10" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="11">
@@ -833,6 +862,9 @@
       <c r="L11" t="n">
         <v>7.7</v>
       </c>
+      <c r="M11" t="n">
+        <v>9.300000000000001</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -873,6 +905,9 @@
       <c r="L12" t="n">
         <v>3.1</v>
       </c>
+      <c r="M12" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -913,6 +948,9 @@
       <c r="L13" t="n">
         <v>3.5</v>
       </c>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -953,6 +991,9 @@
       <c r="L14" t="n">
         <v>5.4</v>
       </c>
+      <c r="M14" t="n">
+        <v>6.5</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -993,6 +1034,9 @@
       <c r="L15" t="n">
         <v>6.6</v>
       </c>
+      <c r="M15" t="n">
+        <v>7.7</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -1033,6 +1077,9 @@
       <c r="L16" t="n">
         <v>3.9</v>
       </c>
+      <c r="M16" t="n">
+        <v>4</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -1073,6 +1120,9 @@
       <c r="L17" t="n">
         <v>4.8</v>
       </c>
+      <c r="M17" t="n">
+        <v>4.9</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -1112,6 +1162,9 @@
       </c>
       <c r="L18" t="n">
         <v>9.699999999999999</v>
+      </c>
+      <c r="M18" t="n">
+        <v>9.6</v>
       </c>
     </row>
     <row r="19">
@@ -1141,6 +1194,9 @@
       <c r="L19" t="n">
         <v>4.4</v>
       </c>
+      <c r="M19" t="n">
+        <v>5.1</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1181,6 +1237,9 @@
       <c r="L20" t="n">
         <v>3.8</v>
       </c>
+      <c r="M20" t="n">
+        <v>4.3</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -1221,6 +1280,9 @@
       <c r="L21" t="n">
         <v>2.5</v>
       </c>
+      <c r="M21" t="n">
+        <v>2.7</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1261,6 +1323,9 @@
       <c r="L22" t="n">
         <v>4.5</v>
       </c>
+      <c r="M22" t="n">
+        <v>5.2</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -1300,13 +1365,16 @@
       </c>
       <c r="L23" t="n">
         <v>6.4</v>
+      </c>
+      <c r="M23" t="n">
+        <v>7.1</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C1:F1"/>
     <mergeCell ref="G1:J1"/>
-    <mergeCell ref="K1:L1"/>
+    <mergeCell ref="K1:M1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
